--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc6.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,168 +468,252 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A quem se aplica o Manual de Mobilização Militar (MD41-M-02)?</t>
+          <t>Qual é a missão principal do Comando de Operações Aeroespaciais (COMAE)?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aplica-se ao Ministério da Defesa (MD) e às Forças Singulares, conforme o item 6.1.1.</t>
+          <t>Empregar o Poder Aeroespacial com vistas a garantir a soberania do Espaço Aéreo Brasileiro e a integração do território nacional, conforme o item 6.1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é a recomendação sobre os órgãos que devem conduzir os processos de Desmobilização?</t>
+          <t>Quais são as características fundamentais do COMAE quanto à sua natureza e ativação?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>É desejável que os processos de Desmobilização sejam conduzidos pelos mesmos órgãos encarregados da Mobilização, conforme o item 6.2.1.</t>
+          <t>É um Comando Operacional Conjunto, ativado permanentemente, com sede no Distrito Federal e órgão central do SISDABRA, conforme o item 6.2.1.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quem é responsável por planejar exercícios de mobilização para treinar e capacitar a estrutura de elaboração dos Planos?</t>
+          <t>De quem é a responsabilidade pelo controle operacional dos meios designados para constituir o SISDABRA?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O EMCFA, por meio da CHELOG, conforme o item 6.2.3.</t>
+          <t>É de responsabilidade do seu órgão central (o COMAE), conforme o item 6.2.3.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O manual de Mobilização poderá sofrer revisões em virtude da aprovação de quais normas e planos?</t>
+          <t>A quem o COMAE é diretamente subordinado nas situações de conflito e de tempo de paz?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Em virtude da aprovação das normas do Planejamento Baseado em Capacidades (PBC) e do Plano de Articulação e de Equipamento de Defesa (PAED), conforme o item 6.4.2.</t>
+          <t>Ao Comandante Supremo (em conflito) e ao Comandante da Aeronáutica (em paz), sempre via Ministério da Defesa, conforme o item 6.2.6.2.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Para qual autoridade devem ser encaminhadas as sugestões para o aperfeiçoamento do documento?</t>
+          <t>Qual é o limite da autoridade do COMAE sobre os elementos alocados ao SISDABRA?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Devem ser encaminhadas ao Estado-Maior Conjunto das Forças Armadas (EMCFA), conforme o item 6.4.3.</t>
+          <t>Restringe-se ao controle operacional para missões específicas, excluindo a autoridade logística e administrativa, conforme o item 6.2.7.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que prevê o Anexo V listado nas Disposições Finais do manual?</t>
+          <t>Por que se considera que os integrantes da Defesa Aeroespacial vivem em "estado de guerra"?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prevê o Modelo de Listas de Carências, conforme a lista de ANEXOS da página 42.</t>
+          <t>Porque devem estar em condições de operar a qualquer momento, com estrutura funcionando integralmente mesmo na normalidade, conforme o item 6.2.8.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quais centros integram o Estado-Maior Conjunto do COMAE?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>O Centro Conjunto de Operações Aéreas, o Centro de Operações Espaciais e o Centro de Planejamento, Orçamento e Gestão Institucionais, conforme o item 6.3.1.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Qual é o requisito de posto e quadro para o Comandante do COMAE?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Deve ser um Oficial-General do último posto do quadro de oficiais aviadores da Força Aérea Brasileira, conforme o item 6.3.2.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Qual é a responsabilidade do COMAE em relação ao PLANDABRA?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elaborar, com participação do EB e MB quando for o caso, e fazer cumprir o Plano de Defesa Aeroespacial Brasileiro, conforme o item 6.4, alínea 'c'.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
     </row>
